--- a/src/monsterLib.xlsx
+++ b/src/monsterLib.xlsx
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="T88" sqref="T88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2137,6 +2137,2261 @@
         <v>10</v>
       </c>
     </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>44</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>45</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+      <c r="L44">
+        <v>46</v>
+      </c>
+      <c r="M44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>45</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>46</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>47</v>
+      </c>
+      <c r="M45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>46</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>47</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>48</v>
+      </c>
+      <c r="M46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>47</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>48</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>49</v>
+      </c>
+      <c r="M47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+      <c r="H48">
+        <v>48</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>49</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>50</v>
+      </c>
+      <c r="M48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>49</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>51</v>
+      </c>
+      <c r="M49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>51</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="L50">
+        <v>52</v>
+      </c>
+      <c r="M50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>51</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>52</v>
+      </c>
+      <c r="K51">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>53</v>
+      </c>
+      <c r="M51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>51</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>52</v>
+      </c>
+      <c r="I52">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>53</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>54</v>
+      </c>
+      <c r="M52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>52</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>53</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <v>54</v>
+      </c>
+      <c r="K53">
+        <v>10</v>
+      </c>
+      <c r="L53">
+        <v>55</v>
+      </c>
+      <c r="M53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>53</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <v>54</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>55</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>56</v>
+      </c>
+      <c r="M54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>54</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>55</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>56</v>
+      </c>
+      <c r="K55">
+        <v>10</v>
+      </c>
+      <c r="L55">
+        <v>57</v>
+      </c>
+      <c r="M55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>55</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>56</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <v>57</v>
+      </c>
+      <c r="K56">
+        <v>10</v>
+      </c>
+      <c r="L56">
+        <v>58</v>
+      </c>
+      <c r="M56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>56</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>57</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>58</v>
+      </c>
+      <c r="K57">
+        <v>10</v>
+      </c>
+      <c r="L57">
+        <v>59</v>
+      </c>
+      <c r="M57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>55</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>57</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>58</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <v>59</v>
+      </c>
+      <c r="K58">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>60</v>
+      </c>
+      <c r="M58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>58</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>59</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>60</v>
+      </c>
+      <c r="K59">
+        <v>10</v>
+      </c>
+      <c r="L59">
+        <v>61</v>
+      </c>
+      <c r="M59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>59</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>60</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>61</v>
+      </c>
+      <c r="K60">
+        <v>10</v>
+      </c>
+      <c r="L60">
+        <v>62</v>
+      </c>
+      <c r="M60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>61</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>62</v>
+      </c>
+      <c r="K61">
+        <v>10</v>
+      </c>
+      <c r="L61">
+        <v>63</v>
+      </c>
+      <c r="M61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>61</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>62</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
+      </c>
+      <c r="J62">
+        <v>63</v>
+      </c>
+      <c r="K62">
+        <v>10</v>
+      </c>
+      <c r="L62">
+        <v>64</v>
+      </c>
+      <c r="M62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <v>62</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>63</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>64</v>
+      </c>
+      <c r="K63">
+        <v>10</v>
+      </c>
+      <c r="L63">
+        <v>65</v>
+      </c>
+      <c r="M63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>63</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64">
+        <v>64</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>65</v>
+      </c>
+      <c r="K64">
+        <v>10</v>
+      </c>
+      <c r="L64">
+        <v>66</v>
+      </c>
+      <c r="M64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>64</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>65</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>66</v>
+      </c>
+      <c r="K65">
+        <v>10</v>
+      </c>
+      <c r="L65">
+        <v>67</v>
+      </c>
+      <c r="M65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>65</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+      <c r="H66">
+        <v>66</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66">
+        <v>67</v>
+      </c>
+      <c r="K66">
+        <v>10</v>
+      </c>
+      <c r="L66">
+        <v>68</v>
+      </c>
+      <c r="M66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>66</v>
+      </c>
+      <c r="G67">
+        <v>10</v>
+      </c>
+      <c r="H67">
+        <v>67</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>68</v>
+      </c>
+      <c r="K67">
+        <v>10</v>
+      </c>
+      <c r="L67">
+        <v>69</v>
+      </c>
+      <c r="M67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>65</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>67</v>
+      </c>
+      <c r="G68">
+        <v>10</v>
+      </c>
+      <c r="H68">
+        <v>68</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="J68">
+        <v>69</v>
+      </c>
+      <c r="K68">
+        <v>10</v>
+      </c>
+      <c r="L68">
+        <v>70</v>
+      </c>
+      <c r="M68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>68</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>69</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69">
+        <v>70</v>
+      </c>
+      <c r="K69">
+        <v>10</v>
+      </c>
+      <c r="L69">
+        <v>71</v>
+      </c>
+      <c r="M69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>67</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>69</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>70</v>
+      </c>
+      <c r="I70">
+        <v>10</v>
+      </c>
+      <c r="J70">
+        <v>71</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>72</v>
+      </c>
+      <c r="M70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>70</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71">
+        <v>71</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+      <c r="J71">
+        <v>72</v>
+      </c>
+      <c r="K71">
+        <v>10</v>
+      </c>
+      <c r="L71">
+        <v>73</v>
+      </c>
+      <c r="M71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>71</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+      <c r="J72">
+        <v>73</v>
+      </c>
+      <c r="K72">
+        <v>10</v>
+      </c>
+      <c r="L72">
+        <v>74</v>
+      </c>
+      <c r="M72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>72</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
+      </c>
+      <c r="H73">
+        <v>73</v>
+      </c>
+      <c r="I73">
+        <v>10</v>
+      </c>
+      <c r="J73">
+        <v>74</v>
+      </c>
+      <c r="K73">
+        <v>10</v>
+      </c>
+      <c r="L73">
+        <v>75</v>
+      </c>
+      <c r="M73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>73</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="H74">
+        <v>74</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+      <c r="J74">
+        <v>75</v>
+      </c>
+      <c r="K74">
+        <v>10</v>
+      </c>
+      <c r="L74">
+        <v>76</v>
+      </c>
+      <c r="M74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>72</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>74</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="H75">
+        <v>75</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>76</v>
+      </c>
+      <c r="K75">
+        <v>10</v>
+      </c>
+      <c r="L75">
+        <v>77</v>
+      </c>
+      <c r="M75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>73</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>75</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+      <c r="H76">
+        <v>76</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>77</v>
+      </c>
+      <c r="K76">
+        <v>10</v>
+      </c>
+      <c r="L76">
+        <v>78</v>
+      </c>
+      <c r="M76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>76</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <v>77</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+      <c r="J77">
+        <v>78</v>
+      </c>
+      <c r="K77">
+        <v>10</v>
+      </c>
+      <c r="L77">
+        <v>79</v>
+      </c>
+      <c r="M77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>76</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>77</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+      <c r="H78">
+        <v>78</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
+      <c r="J78">
+        <v>79</v>
+      </c>
+      <c r="K78">
+        <v>10</v>
+      </c>
+      <c r="L78">
+        <v>80</v>
+      </c>
+      <c r="M78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>76</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>78</v>
+      </c>
+      <c r="G79">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>79</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <v>80</v>
+      </c>
+      <c r="K79">
+        <v>10</v>
+      </c>
+      <c r="L79">
+        <v>81</v>
+      </c>
+      <c r="M79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>77</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>79</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+      <c r="H80">
+        <v>80</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>81</v>
+      </c>
+      <c r="K80">
+        <v>10</v>
+      </c>
+      <c r="L80">
+        <v>82</v>
+      </c>
+      <c r="M80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>78</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>80</v>
+      </c>
+      <c r="G81">
+        <v>10</v>
+      </c>
+      <c r="H81">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>82</v>
+      </c>
+      <c r="K81">
+        <v>10</v>
+      </c>
+      <c r="L81">
+        <v>83</v>
+      </c>
+      <c r="M81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>79</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>81</v>
+      </c>
+      <c r="G82">
+        <v>10</v>
+      </c>
+      <c r="H82">
+        <v>82</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>83</v>
+      </c>
+      <c r="K82">
+        <v>10</v>
+      </c>
+      <c r="L82">
+        <v>84</v>
+      </c>
+      <c r="M82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>82</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="H83">
+        <v>83</v>
+      </c>
+      <c r="I83">
+        <v>10</v>
+      </c>
+      <c r="J83">
+        <v>84</v>
+      </c>
+      <c r="K83">
+        <v>10</v>
+      </c>
+      <c r="L83">
+        <v>85</v>
+      </c>
+      <c r="M83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>81</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>82</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>83</v>
+      </c>
+      <c r="G84">
+        <v>10</v>
+      </c>
+      <c r="H84">
+        <v>84</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>85</v>
+      </c>
+      <c r="K84">
+        <v>10</v>
+      </c>
+      <c r="L84">
+        <v>86</v>
+      </c>
+      <c r="M84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>84</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+      <c r="H85">
+        <v>85</v>
+      </c>
+      <c r="I85">
+        <v>10</v>
+      </c>
+      <c r="J85">
+        <v>86</v>
+      </c>
+      <c r="K85">
+        <v>10</v>
+      </c>
+      <c r="L85">
+        <v>87</v>
+      </c>
+      <c r="M85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>83</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>85</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+      <c r="H86">
+        <v>86</v>
+      </c>
+      <c r="I86">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>87</v>
+      </c>
+      <c r="K86">
+        <v>10</v>
+      </c>
+      <c r="L86">
+        <v>88</v>
+      </c>
+      <c r="M86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>84</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>86</v>
+      </c>
+      <c r="G87">
+        <v>10</v>
+      </c>
+      <c r="H87">
+        <v>87</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+      <c r="J87">
+        <v>88</v>
+      </c>
+      <c r="K87">
+        <v>10</v>
+      </c>
+      <c r="L87">
+        <v>89</v>
+      </c>
+      <c r="M87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>85</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>86</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>87</v>
+      </c>
+      <c r="G88">
+        <v>10</v>
+      </c>
+      <c r="H88">
+        <v>88</v>
+      </c>
+      <c r="I88">
+        <v>10</v>
+      </c>
+      <c r="J88">
+        <v>89</v>
+      </c>
+      <c r="K88">
+        <v>10</v>
+      </c>
+      <c r="L88">
+        <v>90</v>
+      </c>
+      <c r="M88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>86</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>88</v>
+      </c>
+      <c r="G89">
+        <v>10</v>
+      </c>
+      <c r="H89">
+        <v>89</v>
+      </c>
+      <c r="I89">
+        <v>10</v>
+      </c>
+      <c r="J89">
+        <v>90</v>
+      </c>
+      <c r="K89">
+        <v>10</v>
+      </c>
+      <c r="L89">
+        <v>91</v>
+      </c>
+      <c r="M89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>87</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>89</v>
+      </c>
+      <c r="G90">
+        <v>10</v>
+      </c>
+      <c r="H90">
+        <v>90</v>
+      </c>
+      <c r="I90">
+        <v>10</v>
+      </c>
+      <c r="J90">
+        <v>91</v>
+      </c>
+      <c r="K90">
+        <v>10</v>
+      </c>
+      <c r="L90">
+        <v>92</v>
+      </c>
+      <c r="M90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>88</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>90</v>
+      </c>
+      <c r="G91">
+        <v>10</v>
+      </c>
+      <c r="H91">
+        <v>91</v>
+      </c>
+      <c r="I91">
+        <v>10</v>
+      </c>
+      <c r="J91">
+        <v>92</v>
+      </c>
+      <c r="K91">
+        <v>10</v>
+      </c>
+      <c r="L91">
+        <v>93</v>
+      </c>
+      <c r="M91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>89</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>90</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>91</v>
+      </c>
+      <c r="G92">
+        <v>10</v>
+      </c>
+      <c r="H92">
+        <v>92</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
+      <c r="J92">
+        <v>93</v>
+      </c>
+      <c r="K92">
+        <v>10</v>
+      </c>
+      <c r="L92">
+        <v>94</v>
+      </c>
+      <c r="M92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>90</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>92</v>
+      </c>
+      <c r="G93">
+        <v>10</v>
+      </c>
+      <c r="H93">
+        <v>93</v>
+      </c>
+      <c r="I93">
+        <v>10</v>
+      </c>
+      <c r="J93">
+        <v>94</v>
+      </c>
+      <c r="K93">
+        <v>10</v>
+      </c>
+      <c r="L93">
+        <v>95</v>
+      </c>
+      <c r="M93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>91</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>93</v>
+      </c>
+      <c r="G94">
+        <v>10</v>
+      </c>
+      <c r="H94">
+        <v>94</v>
+      </c>
+      <c r="I94">
+        <v>10</v>
+      </c>
+      <c r="J94">
+        <v>95</v>
+      </c>
+      <c r="K94">
+        <v>10</v>
+      </c>
+      <c r="L94">
+        <v>96</v>
+      </c>
+      <c r="M94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>92</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>94</v>
+      </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="H95">
+        <v>95</v>
+      </c>
+      <c r="I95">
+        <v>10</v>
+      </c>
+      <c r="J95">
+        <v>96</v>
+      </c>
+      <c r="K95">
+        <v>10</v>
+      </c>
+      <c r="L95">
+        <v>97</v>
+      </c>
+      <c r="M95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>93</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>95</v>
+      </c>
+      <c r="G96">
+        <v>10</v>
+      </c>
+      <c r="H96">
+        <v>96</v>
+      </c>
+      <c r="I96">
+        <v>10</v>
+      </c>
+      <c r="J96">
+        <v>97</v>
+      </c>
+      <c r="K96">
+        <v>10</v>
+      </c>
+      <c r="L96">
+        <v>98</v>
+      </c>
+      <c r="M96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>94</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>96</v>
+      </c>
+      <c r="G97">
+        <v>10</v>
+      </c>
+      <c r="H97">
+        <v>97</v>
+      </c>
+      <c r="I97">
+        <v>10</v>
+      </c>
+      <c r="J97">
+        <v>98</v>
+      </c>
+      <c r="K97">
+        <v>10</v>
+      </c>
+      <c r="L97">
+        <v>99</v>
+      </c>
+      <c r="M97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>95</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>97</v>
+      </c>
+      <c r="G98">
+        <v>10</v>
+      </c>
+      <c r="H98">
+        <v>98</v>
+      </c>
+      <c r="I98">
+        <v>10</v>
+      </c>
+      <c r="J98">
+        <v>99</v>
+      </c>
+      <c r="K98">
+        <v>10</v>
+      </c>
+      <c r="L98">
+        <v>100</v>
+      </c>
+      <c r="M98">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2145,17 +4400,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2165,15 +4418,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2184,13 +4439,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2202,13 +4457,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/src/monsterLib.xlsx
+++ b/src/monsterLib.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9A0FE2-A7DC-4736-A54D-D710CC6F5E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="10692"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,6 +91,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -386,36 +396,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T88" sqref="T88"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="6.625" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -456,7 +466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -497,7 +507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -538,3855 +548,3855 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>10</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K6">
         <v>10</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I7">
         <v>10</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>10</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I9">
         <v>10</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K9">
         <v>10</v>
       </c>
       <c r="L9">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>10</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>10</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
       <c r="J12">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>10</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
       <c r="J13">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>10</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="M13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="I14">
         <v>10</v>
       </c>
       <c r="J14">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K14">
         <v>10</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G15">
         <v>10</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K15">
         <v>10</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="G16">
         <v>10</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I16">
         <v>10</v>
       </c>
       <c r="J16">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="K16">
         <v>10</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="M16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I17">
         <v>10</v>
       </c>
       <c r="J17">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="K17">
         <v>10</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="M17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
       <c r="J18">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="K18">
         <v>10</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="M18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="G19">
         <v>10</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
       <c r="J19">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K19">
         <v>10</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="M19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="K20">
         <v>10</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="M20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I21">
         <v>10</v>
       </c>
       <c r="J21">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="K21">
         <v>10</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="M21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="G22">
         <v>10</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="K22">
         <v>10</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G23">
         <v>10</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <v>10</v>
       </c>
       <c r="J23">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="K23">
         <v>10</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="M23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
       <c r="H24">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="I24">
         <v>10</v>
       </c>
       <c r="J24">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="K24">
         <v>10</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="M24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="G25">
         <v>10</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I25">
         <v>10</v>
       </c>
       <c r="J25">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="K25">
         <v>10</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="M25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="G26">
         <v>10</v>
       </c>
       <c r="H26">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="K26">
         <v>10</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="M26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="I27">
         <v>10</v>
       </c>
       <c r="J27">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="K27">
         <v>10</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="M27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="F28">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="G28">
         <v>10</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="I28">
         <v>10</v>
       </c>
       <c r="J28">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="K28">
         <v>10</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="M28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="G29">
         <v>10</v>
       </c>
       <c r="H29">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="I29">
         <v>10</v>
       </c>
       <c r="J29">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="K29">
         <v>10</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="M29">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="E30">
         <v>10</v>
       </c>
       <c r="F30">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="G30">
         <v>10</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="I30">
         <v>10</v>
       </c>
       <c r="J30">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="K30">
         <v>10</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="M30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
       <c r="H31">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="I31">
         <v>10</v>
       </c>
       <c r="J31">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="K31">
         <v>10</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="M31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="F32">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="I32">
         <v>10</v>
       </c>
       <c r="J32">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="K32">
         <v>10</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="M32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="G33">
         <v>10</v>
       </c>
       <c r="H33">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="K33">
         <v>10</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="M33">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="G34">
         <v>10</v>
       </c>
       <c r="H34">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="I34">
         <v>10</v>
       </c>
       <c r="J34">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="K34">
         <v>10</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="M34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="F35">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="G35">
         <v>10</v>
       </c>
       <c r="H35">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="I35">
         <v>10</v>
       </c>
       <c r="J35">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="K35">
         <v>10</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="M35">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
       <c r="F36">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="G36">
         <v>10</v>
       </c>
       <c r="H36">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="I36">
         <v>10</v>
       </c>
       <c r="J36">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="K36">
         <v>10</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="M36">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="F37">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="G37">
         <v>10</v>
       </c>
       <c r="H37">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="I37">
         <v>10</v>
       </c>
       <c r="J37">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="K37">
         <v>10</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="M37">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="C38">
         <v>10</v>
       </c>
       <c r="D38">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="F38">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="G38">
         <v>10</v>
       </c>
       <c r="H38">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="I38">
         <v>10</v>
       </c>
       <c r="J38">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="K38">
         <v>10</v>
       </c>
       <c r="L38">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="M38">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
       <c r="D39">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="E39">
         <v>10</v>
       </c>
       <c r="F39">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="G39">
         <v>10</v>
       </c>
       <c r="H39">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="I39">
         <v>10</v>
       </c>
       <c r="J39">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="K39">
         <v>10</v>
       </c>
       <c r="L39">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="M39">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="E40">
         <v>10</v>
       </c>
       <c r="F40">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="G40">
         <v>10</v>
       </c>
       <c r="H40">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="I40">
         <v>10</v>
       </c>
       <c r="J40">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="K40">
         <v>10</v>
       </c>
       <c r="L40">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="M40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="C41">
         <v>10</v>
       </c>
       <c r="D41">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="E41">
         <v>10</v>
       </c>
       <c r="F41">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="G41">
         <v>10</v>
       </c>
       <c r="H41">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="I41">
         <v>10</v>
       </c>
       <c r="J41">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="K41">
         <v>10</v>
       </c>
       <c r="L41">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="M41">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="C42">
         <v>10</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="F42">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="G42">
         <v>10</v>
       </c>
       <c r="H42">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="I42">
         <v>10</v>
       </c>
       <c r="J42">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="K42">
         <v>10</v>
       </c>
       <c r="L42">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="M42">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
       <c r="D43">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="E43">
         <v>10</v>
       </c>
       <c r="F43">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="G43">
         <v>10</v>
       </c>
       <c r="H43">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="I43">
         <v>10</v>
       </c>
       <c r="J43">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="K43">
         <v>10</v>
       </c>
       <c r="L43">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="M43">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
       <c r="D44">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="F44">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="G44">
         <v>10</v>
       </c>
       <c r="H44">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="I44">
         <v>10</v>
       </c>
       <c r="J44">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="K44">
         <v>10</v>
       </c>
       <c r="L44">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="M44">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="C45">
         <v>10</v>
       </c>
       <c r="D45">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="E45">
         <v>10</v>
       </c>
       <c r="F45">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="G45">
         <v>10</v>
       </c>
       <c r="H45">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="I45">
         <v>10</v>
       </c>
       <c r="J45">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="K45">
         <v>10</v>
       </c>
       <c r="L45">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="M45">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
       <c r="D46">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="F46">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G46">
         <v>10</v>
       </c>
       <c r="H46">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="I46">
         <v>10</v>
       </c>
       <c r="J46">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="K46">
         <v>10</v>
       </c>
       <c r="L46">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="M46">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
       <c r="D47">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="F47">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="G47">
         <v>10</v>
       </c>
       <c r="H47">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="I47">
         <v>10</v>
       </c>
       <c r="J47">
-        <v>48</v>
+        <v>221</v>
       </c>
       <c r="K47">
         <v>10</v>
       </c>
       <c r="L47">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="M47">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C48">
         <v>10</v>
       </c>
       <c r="D48">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="E48">
         <v>10</v>
       </c>
       <c r="F48">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="G48">
         <v>10</v>
       </c>
       <c r="H48">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="I48">
         <v>10</v>
       </c>
       <c r="J48">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="K48">
         <v>10</v>
       </c>
       <c r="L48">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="M48">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c r="C49">
         <v>10</v>
       </c>
       <c r="D49">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="E49">
         <v>10</v>
       </c>
       <c r="F49">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="G49">
         <v>10</v>
       </c>
       <c r="H49">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="I49">
         <v>10</v>
       </c>
       <c r="J49">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="K49">
         <v>10</v>
       </c>
       <c r="L49">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="M49">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
       <c r="D50">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="E50">
         <v>10</v>
       </c>
       <c r="F50">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="G50">
         <v>10</v>
       </c>
       <c r="H50">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
       <c r="J50">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="K50">
         <v>10</v>
       </c>
       <c r="L50">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="M50">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="C51">
         <v>10</v>
       </c>
       <c r="D51">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="G51">
         <v>10</v>
       </c>
       <c r="H51">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="K51">
         <v>10</v>
       </c>
       <c r="L51">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="M51">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="C52">
         <v>10</v>
       </c>
       <c r="D52">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="E52">
         <v>10</v>
       </c>
       <c r="F52">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="G52">
         <v>10</v>
       </c>
       <c r="H52">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="I52">
         <v>10</v>
       </c>
       <c r="J52">
-        <v>53</v>
+        <v>246</v>
       </c>
       <c r="K52">
         <v>10</v>
       </c>
       <c r="L52">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="M52">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="C53">
         <v>10</v>
       </c>
       <c r="D53">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="F53">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="G53">
         <v>10</v>
       </c>
       <c r="H53">
-        <v>53</v>
+        <v>250</v>
       </c>
       <c r="I53">
         <v>10</v>
       </c>
       <c r="J53">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="K53">
         <v>10</v>
       </c>
       <c r="L53">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="M53">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="C54">
         <v>10</v>
       </c>
       <c r="D54">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="E54">
         <v>10</v>
       </c>
       <c r="F54">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="G54">
         <v>10</v>
       </c>
       <c r="H54">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="I54">
         <v>10</v>
       </c>
       <c r="J54">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="K54">
         <v>10</v>
       </c>
       <c r="L54">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="M54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="C55">
         <v>10</v>
       </c>
       <c r="D55">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="F55">
-        <v>54</v>
+        <v>259</v>
       </c>
       <c r="G55">
         <v>10</v>
       </c>
       <c r="H55">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="I55">
         <v>10</v>
       </c>
       <c r="J55">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="K55">
         <v>10</v>
       </c>
       <c r="L55">
-        <v>57</v>
+        <v>262</v>
       </c>
       <c r="M55">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="C56">
         <v>10</v>
       </c>
       <c r="D56">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="F56">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="G56">
         <v>10</v>
       </c>
       <c r="H56">
-        <v>56</v>
+        <v>265</v>
       </c>
       <c r="I56">
         <v>10</v>
       </c>
       <c r="J56">
-        <v>57</v>
+        <v>266</v>
       </c>
       <c r="K56">
         <v>10</v>
       </c>
       <c r="L56">
-        <v>58</v>
+        <v>267</v>
       </c>
       <c r="M56">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57">
-        <v>54</v>
+        <v>267</v>
       </c>
       <c r="C57">
         <v>10</v>
       </c>
       <c r="D57">
-        <v>55</v>
+        <v>268</v>
       </c>
       <c r="E57">
         <v>10</v>
       </c>
       <c r="F57">
-        <v>56</v>
+        <v>269</v>
       </c>
       <c r="G57">
         <v>10</v>
       </c>
       <c r="H57">
-        <v>57</v>
+        <v>270</v>
       </c>
       <c r="I57">
         <v>10</v>
       </c>
       <c r="J57">
-        <v>58</v>
+        <v>271</v>
       </c>
       <c r="K57">
         <v>10</v>
       </c>
       <c r="L57">
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="M57">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="C58">
         <v>10</v>
       </c>
       <c r="D58">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
       <c r="F58">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="G58">
         <v>10</v>
       </c>
       <c r="H58">
-        <v>58</v>
+        <v>275</v>
       </c>
       <c r="I58">
         <v>10</v>
       </c>
       <c r="J58">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="K58">
         <v>10</v>
       </c>
       <c r="L58">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="M58">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59">
-        <v>56</v>
+        <v>277</v>
       </c>
       <c r="C59">
         <v>10</v>
       </c>
       <c r="D59">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="E59">
         <v>10</v>
       </c>
       <c r="F59">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="G59">
         <v>10</v>
       </c>
       <c r="H59">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c r="I59">
         <v>10</v>
       </c>
       <c r="J59">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="K59">
         <v>10</v>
       </c>
       <c r="L59">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="M59">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60">
-        <v>57</v>
+        <v>282</v>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
       <c r="D60">
-        <v>58</v>
+        <v>283</v>
       </c>
       <c r="E60">
         <v>10</v>
       </c>
       <c r="F60">
-        <v>59</v>
+        <v>284</v>
       </c>
       <c r="G60">
         <v>10</v>
       </c>
       <c r="H60">
-        <v>60</v>
+        <v>285</v>
       </c>
       <c r="I60">
         <v>10</v>
       </c>
       <c r="J60">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="K60">
         <v>10</v>
       </c>
       <c r="L60">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="M60">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61">
-        <v>58</v>
+        <v>287</v>
       </c>
       <c r="C61">
         <v>10</v>
       </c>
       <c r="D61">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="E61">
         <v>10</v>
       </c>
       <c r="F61">
-        <v>60</v>
+        <v>289</v>
       </c>
       <c r="G61">
         <v>10</v>
       </c>
       <c r="H61">
-        <v>61</v>
+        <v>290</v>
       </c>
       <c r="I61">
         <v>10</v>
       </c>
       <c r="J61">
-        <v>62</v>
+        <v>291</v>
       </c>
       <c r="K61">
         <v>10</v>
       </c>
       <c r="L61">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="M61">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62">
-        <v>59</v>
+        <v>292</v>
       </c>
       <c r="C62">
         <v>10</v>
       </c>
       <c r="D62">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="E62">
         <v>10</v>
       </c>
       <c r="F62">
-        <v>61</v>
+        <v>294</v>
       </c>
       <c r="G62">
         <v>10</v>
       </c>
       <c r="H62">
-        <v>62</v>
+        <v>295</v>
       </c>
       <c r="I62">
         <v>10</v>
       </c>
       <c r="J62">
-        <v>63</v>
+        <v>296</v>
       </c>
       <c r="K62">
         <v>10</v>
       </c>
       <c r="L62">
-        <v>64</v>
+        <v>297</v>
       </c>
       <c r="M62">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63">
-        <v>60</v>
+        <v>297</v>
       </c>
       <c r="C63">
         <v>10</v>
       </c>
       <c r="D63">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="E63">
         <v>10</v>
       </c>
       <c r="F63">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="G63">
         <v>10</v>
       </c>
       <c r="H63">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="I63">
         <v>10</v>
       </c>
       <c r="J63">
-        <v>64</v>
+        <v>301</v>
       </c>
       <c r="K63">
         <v>10</v>
       </c>
       <c r="L63">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="M63">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64">
-        <v>61</v>
+        <v>302</v>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64">
-        <v>62</v>
+        <v>303</v>
       </c>
       <c r="E64">
         <v>10</v>
       </c>
       <c r="F64">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c r="G64">
         <v>10</v>
       </c>
       <c r="H64">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="I64">
         <v>10</v>
       </c>
       <c r="J64">
-        <v>65</v>
+        <v>306</v>
       </c>
       <c r="K64">
         <v>10</v>
       </c>
       <c r="L64">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="M64">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
       <c r="B65">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="E65">
         <v>10</v>
       </c>
       <c r="F65">
-        <v>64</v>
+        <v>309</v>
       </c>
       <c r="G65">
         <v>10</v>
       </c>
       <c r="H65">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="I65">
         <v>10</v>
       </c>
       <c r="J65">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="K65">
         <v>10</v>
       </c>
       <c r="L65">
-        <v>67</v>
+        <v>312</v>
       </c>
       <c r="M65">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66">
-        <v>63</v>
+        <v>312</v>
       </c>
       <c r="C66">
         <v>10</v>
       </c>
       <c r="D66">
-        <v>64</v>
+        <v>313</v>
       </c>
       <c r="E66">
         <v>10</v>
       </c>
       <c r="F66">
-        <v>65</v>
+        <v>314</v>
       </c>
       <c r="G66">
         <v>10</v>
       </c>
       <c r="H66">
-        <v>66</v>
+        <v>315</v>
       </c>
       <c r="I66">
         <v>10</v>
       </c>
       <c r="J66">
-        <v>67</v>
+        <v>316</v>
       </c>
       <c r="K66">
         <v>10</v>
       </c>
       <c r="L66">
-        <v>68</v>
+        <v>317</v>
       </c>
       <c r="M66">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
       <c r="B67">
-        <v>64</v>
+        <v>317</v>
       </c>
       <c r="C67">
         <v>10</v>
       </c>
       <c r="D67">
-        <v>65</v>
+        <v>318</v>
       </c>
       <c r="E67">
         <v>10</v>
       </c>
       <c r="F67">
-        <v>66</v>
+        <v>319</v>
       </c>
       <c r="G67">
         <v>10</v>
       </c>
       <c r="H67">
-        <v>67</v>
+        <v>320</v>
       </c>
       <c r="I67">
         <v>10</v>
       </c>
       <c r="J67">
-        <v>68</v>
+        <v>321</v>
       </c>
       <c r="K67">
         <v>10</v>
       </c>
       <c r="L67">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="M67">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
       <c r="B68">
-        <v>65</v>
+        <v>322</v>
       </c>
       <c r="C68">
         <v>10</v>
       </c>
       <c r="D68">
-        <v>66</v>
+        <v>323</v>
       </c>
       <c r="E68">
         <v>10</v>
       </c>
       <c r="F68">
-        <v>67</v>
+        <v>324</v>
       </c>
       <c r="G68">
         <v>10</v>
       </c>
       <c r="H68">
-        <v>68</v>
+        <v>325</v>
       </c>
       <c r="I68">
         <v>10</v>
       </c>
       <c r="J68">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="K68">
         <v>10</v>
       </c>
       <c r="L68">
-        <v>70</v>
+        <v>327</v>
       </c>
       <c r="M68">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
       <c r="B69">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="C69">
         <v>10</v>
       </c>
       <c r="D69">
-        <v>67</v>
+        <v>328</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="F69">
-        <v>68</v>
+        <v>329</v>
       </c>
       <c r="G69">
         <v>10</v>
       </c>
       <c r="H69">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="I69">
         <v>10</v>
       </c>
       <c r="J69">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="K69">
         <v>10</v>
       </c>
       <c r="L69">
-        <v>71</v>
+        <v>332</v>
       </c>
       <c r="M69">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
       <c r="B70">
-        <v>67</v>
+        <v>332</v>
       </c>
       <c r="C70">
         <v>10</v>
       </c>
       <c r="D70">
-        <v>68</v>
+        <v>333</v>
       </c>
       <c r="E70">
         <v>10</v>
       </c>
       <c r="F70">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="G70">
         <v>10</v>
       </c>
       <c r="H70">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="I70">
         <v>10</v>
       </c>
       <c r="J70">
-        <v>71</v>
+        <v>336</v>
       </c>
       <c r="K70">
         <v>10</v>
       </c>
       <c r="L70">
-        <v>72</v>
+        <v>337</v>
       </c>
       <c r="M70">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
       <c r="B71">
-        <v>68</v>
+        <v>337</v>
       </c>
       <c r="C71">
         <v>10</v>
       </c>
       <c r="D71">
-        <v>69</v>
+        <v>338</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="F71">
-        <v>70</v>
+        <v>339</v>
       </c>
       <c r="G71">
         <v>10</v>
       </c>
       <c r="H71">
-        <v>71</v>
+        <v>340</v>
       </c>
       <c r="I71">
         <v>10</v>
       </c>
       <c r="J71">
-        <v>72</v>
+        <v>341</v>
       </c>
       <c r="K71">
         <v>10</v>
       </c>
       <c r="L71">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="M71">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
       <c r="B72">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="C72">
         <v>10</v>
       </c>
       <c r="D72">
-        <v>70</v>
+        <v>343</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="F72">
-        <v>71</v>
+        <v>344</v>
       </c>
       <c r="G72">
         <v>10</v>
       </c>
       <c r="H72">
-        <v>72</v>
+        <v>345</v>
       </c>
       <c r="I72">
         <v>10</v>
       </c>
       <c r="J72">
-        <v>73</v>
+        <v>346</v>
       </c>
       <c r="K72">
         <v>10</v>
       </c>
       <c r="L72">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="M72">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
       <c r="B73">
-        <v>70</v>
+        <v>347</v>
       </c>
       <c r="C73">
         <v>10</v>
       </c>
       <c r="D73">
-        <v>71</v>
+        <v>348</v>
       </c>
       <c r="E73">
         <v>10</v>
       </c>
       <c r="F73">
-        <v>72</v>
+        <v>349</v>
       </c>
       <c r="G73">
         <v>10</v>
       </c>
       <c r="H73">
-        <v>73</v>
+        <v>350</v>
       </c>
       <c r="I73">
         <v>10</v>
       </c>
       <c r="J73">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="K73">
         <v>10</v>
       </c>
       <c r="L73">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="M73">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
       <c r="B74">
-        <v>71</v>
+        <v>352</v>
       </c>
       <c r="C74">
         <v>10</v>
       </c>
       <c r="D74">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="E74">
         <v>10</v>
       </c>
       <c r="F74">
-        <v>73</v>
+        <v>354</v>
       </c>
       <c r="G74">
         <v>10</v>
       </c>
       <c r="H74">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="I74">
         <v>10</v>
       </c>
       <c r="J74">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="K74">
         <v>10</v>
       </c>
       <c r="L74">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="M74">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
       <c r="B75">
-        <v>72</v>
+        <v>357</v>
       </c>
       <c r="C75">
         <v>10</v>
       </c>
       <c r="D75">
-        <v>73</v>
+        <v>358</v>
       </c>
       <c r="E75">
         <v>10</v>
       </c>
       <c r="F75">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="G75">
         <v>10</v>
       </c>
       <c r="H75">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="I75">
         <v>10</v>
       </c>
       <c r="J75">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="K75">
         <v>10</v>
       </c>
       <c r="L75">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="M75">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
       <c r="B76">
-        <v>73</v>
+        <v>362</v>
       </c>
       <c r="C76">
         <v>10</v>
       </c>
       <c r="D76">
-        <v>74</v>
+        <v>363</v>
       </c>
       <c r="E76">
         <v>10</v>
       </c>
       <c r="F76">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="G76">
         <v>10</v>
       </c>
       <c r="H76">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="I76">
         <v>10</v>
       </c>
       <c r="J76">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="K76">
         <v>10</v>
       </c>
       <c r="L76">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="M76">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
       <c r="B77">
-        <v>74</v>
+        <v>367</v>
       </c>
       <c r="C77">
         <v>10</v>
       </c>
       <c r="D77">
-        <v>75</v>
+        <v>368</v>
       </c>
       <c r="E77">
         <v>10</v>
       </c>
       <c r="F77">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="G77">
         <v>10</v>
       </c>
       <c r="H77">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="I77">
         <v>10</v>
       </c>
       <c r="J77">
-        <v>78</v>
+        <v>371</v>
       </c>
       <c r="K77">
         <v>10</v>
       </c>
       <c r="L77">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="M77">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
       <c r="B78">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="C78">
         <v>10</v>
       </c>
       <c r="D78">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="E78">
         <v>10</v>
       </c>
       <c r="F78">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="G78">
         <v>10</v>
       </c>
       <c r="H78">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="I78">
         <v>10</v>
       </c>
       <c r="J78">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="K78">
         <v>10</v>
       </c>
       <c r="L78">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="M78">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
       <c r="B79">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="C79">
         <v>10</v>
       </c>
       <c r="D79">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="E79">
         <v>10</v>
       </c>
       <c r="F79">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="G79">
         <v>10</v>
       </c>
       <c r="H79">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="I79">
         <v>10</v>
       </c>
       <c r="J79">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="K79">
         <v>10</v>
       </c>
       <c r="L79">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="M79">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
       <c r="B80">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="C80">
         <v>10</v>
       </c>
       <c r="D80">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="E80">
         <v>10</v>
       </c>
       <c r="F80">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="G80">
         <v>10</v>
       </c>
       <c r="H80">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="I80">
         <v>10</v>
       </c>
       <c r="J80">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="K80">
         <v>10</v>
       </c>
       <c r="L80">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="M80">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>78</v>
       </c>
       <c r="B81">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="C81">
         <v>10</v>
       </c>
       <c r="D81">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="E81">
         <v>10</v>
       </c>
       <c r="F81">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="G81">
         <v>10</v>
       </c>
       <c r="H81">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="I81">
         <v>10</v>
       </c>
       <c r="J81">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="K81">
         <v>10</v>
       </c>
       <c r="L81">
-        <v>83</v>
+        <v>392</v>
       </c>
       <c r="M81">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
       <c r="B82">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="C82">
         <v>10</v>
       </c>
       <c r="D82">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="E82">
         <v>10</v>
       </c>
       <c r="F82">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="G82">
         <v>10</v>
       </c>
       <c r="H82">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="I82">
         <v>10</v>
       </c>
       <c r="J82">
-        <v>83</v>
+        <v>396</v>
       </c>
       <c r="K82">
         <v>10</v>
       </c>
       <c r="L82">
-        <v>84</v>
+        <v>397</v>
       </c>
       <c r="M82">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
       <c r="B83">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="C83">
         <v>10</v>
       </c>
       <c r="D83">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="E83">
         <v>10</v>
       </c>
       <c r="F83">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="G83">
         <v>10</v>
       </c>
       <c r="H83">
-        <v>83</v>
+        <v>400</v>
       </c>
       <c r="I83">
         <v>10</v>
       </c>
       <c r="J83">
-        <v>84</v>
+        <v>401</v>
       </c>
       <c r="K83">
         <v>10</v>
       </c>
       <c r="L83">
-        <v>85</v>
+        <v>402</v>
       </c>
       <c r="M83">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81</v>
       </c>
       <c r="B84">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="C84">
         <v>10</v>
       </c>
       <c r="D84">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="E84">
         <v>10</v>
       </c>
       <c r="F84">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="G84">
         <v>10</v>
       </c>
       <c r="H84">
-        <v>84</v>
+        <v>405</v>
       </c>
       <c r="I84">
         <v>10</v>
       </c>
       <c r="J84">
-        <v>85</v>
+        <v>406</v>
       </c>
       <c r="K84">
         <v>10</v>
       </c>
       <c r="L84">
-        <v>86</v>
+        <v>407</v>
       </c>
       <c r="M84">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>82</v>
       </c>
       <c r="B85">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="C85">
         <v>10</v>
       </c>
       <c r="D85">
-        <v>83</v>
+        <v>408</v>
       </c>
       <c r="E85">
         <v>10</v>
       </c>
       <c r="F85">
-        <v>84</v>
+        <v>409</v>
       </c>
       <c r="G85">
         <v>10</v>
       </c>
       <c r="H85">
-        <v>85</v>
+        <v>410</v>
       </c>
       <c r="I85">
         <v>10</v>
       </c>
       <c r="J85">
-        <v>86</v>
+        <v>411</v>
       </c>
       <c r="K85">
         <v>10</v>
       </c>
       <c r="L85">
-        <v>87</v>
+        <v>412</v>
       </c>
       <c r="M85">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83</v>
       </c>
       <c r="B86">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="C86">
         <v>10</v>
       </c>
       <c r="D86">
-        <v>84</v>
+        <v>413</v>
       </c>
       <c r="E86">
         <v>10</v>
       </c>
       <c r="F86">
-        <v>85</v>
+        <v>414</v>
       </c>
       <c r="G86">
         <v>10</v>
       </c>
       <c r="H86">
-        <v>86</v>
+        <v>415</v>
       </c>
       <c r="I86">
         <v>10</v>
       </c>
       <c r="J86">
-        <v>87</v>
+        <v>416</v>
       </c>
       <c r="K86">
         <v>10</v>
       </c>
       <c r="L86">
-        <v>88</v>
+        <v>417</v>
       </c>
       <c r="M86">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
       <c r="B87">
-        <v>84</v>
+        <v>417</v>
       </c>
       <c r="C87">
         <v>10</v>
       </c>
       <c r="D87">
-        <v>85</v>
+        <v>418</v>
       </c>
       <c r="E87">
         <v>10</v>
       </c>
       <c r="F87">
-        <v>86</v>
+        <v>419</v>
       </c>
       <c r="G87">
         <v>10</v>
       </c>
       <c r="H87">
-        <v>87</v>
+        <v>420</v>
       </c>
       <c r="I87">
         <v>10</v>
       </c>
       <c r="J87">
-        <v>88</v>
+        <v>421</v>
       </c>
       <c r="K87">
         <v>10</v>
       </c>
       <c r="L87">
-        <v>89</v>
+        <v>422</v>
       </c>
       <c r="M87">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
       <c r="B88">
-        <v>85</v>
+        <v>422</v>
       </c>
       <c r="C88">
         <v>10</v>
       </c>
       <c r="D88">
-        <v>86</v>
+        <v>423</v>
       </c>
       <c r="E88">
         <v>10</v>
       </c>
       <c r="F88">
-        <v>87</v>
+        <v>424</v>
       </c>
       <c r="G88">
         <v>10</v>
       </c>
       <c r="H88">
-        <v>88</v>
+        <v>425</v>
       </c>
       <c r="I88">
         <v>10</v>
       </c>
       <c r="J88">
-        <v>89</v>
+        <v>426</v>
       </c>
       <c r="K88">
         <v>10</v>
       </c>
       <c r="L88">
-        <v>90</v>
+        <v>427</v>
       </c>
       <c r="M88">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>86</v>
       </c>
       <c r="B89">
-        <v>86</v>
+        <v>427</v>
       </c>
       <c r="C89">
         <v>10</v>
       </c>
       <c r="D89">
-        <v>87</v>
+        <v>428</v>
       </c>
       <c r="E89">
         <v>10</v>
       </c>
       <c r="F89">
-        <v>88</v>
+        <v>429</v>
       </c>
       <c r="G89">
         <v>10</v>
       </c>
       <c r="H89">
-        <v>89</v>
+        <v>430</v>
       </c>
       <c r="I89">
         <v>10</v>
       </c>
       <c r="J89">
-        <v>90</v>
+        <v>431</v>
       </c>
       <c r="K89">
         <v>10</v>
       </c>
       <c r="L89">
-        <v>91</v>
+        <v>432</v>
       </c>
       <c r="M89">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>87</v>
       </c>
       <c r="B90">
-        <v>87</v>
+        <v>432</v>
       </c>
       <c r="C90">
         <v>10</v>
       </c>
       <c r="D90">
-        <v>88</v>
+        <v>433</v>
       </c>
       <c r="E90">
         <v>10</v>
       </c>
       <c r="F90">
-        <v>89</v>
+        <v>434</v>
       </c>
       <c r="G90">
         <v>10</v>
       </c>
       <c r="H90">
-        <v>90</v>
+        <v>435</v>
       </c>
       <c r="I90">
         <v>10</v>
       </c>
       <c r="J90">
-        <v>91</v>
+        <v>436</v>
       </c>
       <c r="K90">
         <v>10</v>
       </c>
       <c r="L90">
-        <v>92</v>
+        <v>437</v>
       </c>
       <c r="M90">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>88</v>
       </c>
       <c r="B91">
-        <v>88</v>
+        <v>437</v>
       </c>
       <c r="C91">
         <v>10</v>
       </c>
       <c r="D91">
-        <v>89</v>
+        <v>438</v>
       </c>
       <c r="E91">
         <v>10</v>
       </c>
       <c r="F91">
-        <v>90</v>
+        <v>439</v>
       </c>
       <c r="G91">
         <v>10</v>
       </c>
       <c r="H91">
-        <v>91</v>
+        <v>440</v>
       </c>
       <c r="I91">
         <v>10</v>
       </c>
       <c r="J91">
-        <v>92</v>
+        <v>441</v>
       </c>
       <c r="K91">
         <v>10</v>
       </c>
       <c r="L91">
-        <v>93</v>
+        <v>442</v>
       </c>
       <c r="M91">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
       <c r="B92">
-        <v>89</v>
+        <v>442</v>
       </c>
       <c r="C92">
         <v>10</v>
       </c>
       <c r="D92">
-        <v>90</v>
+        <v>443</v>
       </c>
       <c r="E92">
         <v>10</v>
       </c>
       <c r="F92">
-        <v>91</v>
+        <v>444</v>
       </c>
       <c r="G92">
         <v>10</v>
       </c>
       <c r="H92">
-        <v>92</v>
+        <v>445</v>
       </c>
       <c r="I92">
         <v>10</v>
       </c>
       <c r="J92">
-        <v>93</v>
+        <v>446</v>
       </c>
       <c r="K92">
         <v>10</v>
       </c>
       <c r="L92">
-        <v>94</v>
+        <v>447</v>
       </c>
       <c r="M92">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
       <c r="B93">
-        <v>90</v>
+        <v>447</v>
       </c>
       <c r="C93">
         <v>10</v>
       </c>
       <c r="D93">
-        <v>91</v>
+        <v>448</v>
       </c>
       <c r="E93">
         <v>10</v>
       </c>
       <c r="F93">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="G93">
         <v>10</v>
       </c>
       <c r="H93">
-        <v>93</v>
+        <v>450</v>
       </c>
       <c r="I93">
         <v>10</v>
       </c>
       <c r="J93">
-        <v>94</v>
+        <v>451</v>
       </c>
       <c r="K93">
         <v>10</v>
       </c>
       <c r="L93">
-        <v>95</v>
+        <v>452</v>
       </c>
       <c r="M93">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>91</v>
       </c>
       <c r="B94">
-        <v>91</v>
+        <v>452</v>
       </c>
       <c r="C94">
         <v>10</v>
       </c>
       <c r="D94">
-        <v>92</v>
+        <v>453</v>
       </c>
       <c r="E94">
         <v>10</v>
       </c>
       <c r="F94">
-        <v>93</v>
+        <v>454</v>
       </c>
       <c r="G94">
         <v>10</v>
       </c>
       <c r="H94">
-        <v>94</v>
+        <v>455</v>
       </c>
       <c r="I94">
         <v>10</v>
       </c>
       <c r="J94">
-        <v>95</v>
+        <v>456</v>
       </c>
       <c r="K94">
         <v>10</v>
       </c>
       <c r="L94">
-        <v>96</v>
+        <v>457</v>
       </c>
       <c r="M94">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>92</v>
       </c>
       <c r="B95">
-        <v>92</v>
+        <v>457</v>
       </c>
       <c r="C95">
         <v>10</v>
       </c>
       <c r="D95">
-        <v>93</v>
+        <v>458</v>
       </c>
       <c r="E95">
         <v>10</v>
       </c>
       <c r="F95">
-        <v>94</v>
+        <v>459</v>
       </c>
       <c r="G95">
         <v>10</v>
       </c>
       <c r="H95">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="I95">
         <v>10</v>
       </c>
       <c r="J95">
-        <v>96</v>
+        <v>461</v>
       </c>
       <c r="K95">
         <v>10</v>
       </c>
       <c r="L95">
-        <v>97</v>
+        <v>462</v>
       </c>
       <c r="M95">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>93</v>
       </c>
       <c r="B96">
-        <v>93</v>
+        <v>462</v>
       </c>
       <c r="C96">
         <v>10</v>
       </c>
       <c r="D96">
-        <v>94</v>
+        <v>463</v>
       </c>
       <c r="E96">
         <v>10</v>
       </c>
       <c r="F96">
-        <v>95</v>
+        <v>464</v>
       </c>
       <c r="G96">
         <v>10</v>
       </c>
       <c r="H96">
-        <v>96</v>
+        <v>465</v>
       </c>
       <c r="I96">
         <v>10</v>
       </c>
       <c r="J96">
-        <v>97</v>
+        <v>466</v>
       </c>
       <c r="K96">
         <v>10</v>
       </c>
       <c r="L96">
-        <v>98</v>
+        <v>467</v>
       </c>
       <c r="M96">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>94</v>
       </c>
       <c r="B97">
-        <v>94</v>
+        <v>467</v>
       </c>
       <c r="C97">
         <v>10</v>
       </c>
       <c r="D97">
-        <v>95</v>
+        <v>468</v>
       </c>
       <c r="E97">
         <v>10</v>
       </c>
       <c r="F97">
-        <v>96</v>
+        <v>469</v>
       </c>
       <c r="G97">
         <v>10</v>
       </c>
       <c r="H97">
-        <v>97</v>
+        <v>470</v>
       </c>
       <c r="I97">
         <v>10</v>
       </c>
       <c r="J97">
-        <v>98</v>
+        <v>471</v>
       </c>
       <c r="K97">
         <v>10</v>
       </c>
       <c r="L97">
-        <v>99</v>
+        <v>472</v>
       </c>
       <c r="M97">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>95</v>
       </c>
       <c r="B98">
-        <v>95</v>
+        <v>472</v>
       </c>
       <c r="C98">
         <v>10</v>
       </c>
       <c r="D98">
-        <v>96</v>
+        <v>473</v>
       </c>
       <c r="E98">
         <v>10</v>
       </c>
       <c r="F98">
-        <v>97</v>
+        <v>474</v>
       </c>
       <c r="G98">
         <v>10</v>
       </c>
       <c r="H98">
-        <v>98</v>
+        <v>475</v>
       </c>
       <c r="I98">
         <v>10</v>
       </c>
       <c r="J98">
-        <v>99</v>
+        <v>476</v>
       </c>
       <c r="K98">
         <v>10</v>
       </c>
       <c r="L98">
-        <v>100</v>
+        <v>477</v>
       </c>
       <c r="M98">
         <v>10</v>
@@ -4400,10 +4410,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -4411,65 +4417,69 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>